--- a/recipeCreationTests.xlsx
+++ b/recipeCreationTests.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lattice\Desktop\automate\sprectrum-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D420E7-3C2C-4809-9835-36AD5E3CAB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D978A-703C-4EB2-9986-52CFCE7D0AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="loginTestcases" sheetId="1" r:id="rId1"/>
-    <sheet name="cModeRecipeCreation" sheetId="8" r:id="rId2"/>
+    <sheet name="cModeRecipeCreation" sheetId="8" r:id="rId1"/>
+    <sheet name="dModeRecipeCreation" sheetId="9" r:id="rId2"/>
+    <sheet name="cfcModeRecipeCreation" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="189">
   <si>
     <t>UC_ID</t>
   </si>
@@ -350,18 +351,9 @@
     <t>select KRJr pump</t>
   </si>
   <si>
-    <t>selectKRJr</t>
-  </si>
-  <si>
     <t>Select KR1 pump</t>
   </si>
   <si>
-    <t>selectKR1</t>
-  </si>
-  <si>
-    <t>selectPort</t>
-  </si>
-  <si>
     <t>Select aux pump port</t>
   </si>
   <si>
@@ -374,9 +366,6 @@
     <t>Select pump function</t>
   </si>
   <si>
-    <t>selectAuxFunction</t>
-  </si>
-  <si>
     <t>Permeate</t>
   </si>
   <si>
@@ -386,9 +375,6 @@
     <t>`4.8</t>
   </si>
   <si>
-    <t>permeateFlowrate</t>
-  </si>
-  <si>
     <t>step4Next</t>
   </si>
   <si>
@@ -473,9 +459,6 @@
     <t>`10</t>
   </si>
   <si>
-    <t>abv1StartPosition</t>
-  </si>
-  <si>
     <t>Enter abv 1 start Position</t>
   </si>
   <si>
@@ -485,9 +468,6 @@
     <t>`5</t>
   </si>
   <si>
-    <t>abv1OperatingPressure</t>
-  </si>
-  <si>
     <t>step5Back</t>
   </si>
   <si>
@@ -524,13 +504,91 @@
     <t>Select Channel 2 No</t>
   </si>
   <si>
-    <t>C mode Recipe 3</t>
-  </si>
-  <si>
     <t>`3</t>
   </si>
   <si>
     <t>C mode Recipe 5</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Select aux pump count to 2</t>
+  </si>
+  <si>
+    <t>auxPumpCount2</t>
+  </si>
+  <si>
+    <t>Diafiltration 1</t>
+  </si>
+  <si>
+    <t>auxPump1Tubing</t>
+  </si>
+  <si>
+    <t>Aux Pump 2</t>
+  </si>
+  <si>
+    <t>selectPort1</t>
+  </si>
+  <si>
+    <t>selectPort2</t>
+  </si>
+  <si>
+    <t>Select aux pump port 2</t>
+  </si>
+  <si>
+    <t>Select aux pump port 1</t>
+  </si>
+  <si>
+    <t>selectAuxFunction1</t>
+  </si>
+  <si>
+    <t>selectAuxFunction2</t>
+  </si>
+  <si>
+    <t>selectKRJr2</t>
+  </si>
+  <si>
+    <t>selectKRJr1</t>
+  </si>
+  <si>
+    <t>selectKR11</t>
+  </si>
+  <si>
+    <t>permeateFlowrate1</t>
+  </si>
+  <si>
+    <t>permeateFlowrate2</t>
+  </si>
+  <si>
+    <t>auxPump2Tubing</t>
+  </si>
+  <si>
+    <t>auxPumpDropDown</t>
+  </si>
+  <si>
+    <t>abv1StartPositionD</t>
+  </si>
+  <si>
+    <t>abv1OperatingPressureD</t>
+  </si>
+  <si>
+    <t>abv1StartPositionC</t>
+  </si>
+  <si>
+    <t>abv1OperatingPressureC</t>
+  </si>
+  <si>
+    <t>D Mode recipe 2</t>
+  </si>
+  <si>
+    <t>CFC Mode recipe 2</t>
+  </si>
+  <si>
+    <t>CFC</t>
+  </si>
+  <si>
+    <t>Constant Feed</t>
   </si>
 </sst>
 </file>
@@ -661,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -702,6 +760,56 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1041,11 +1149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06968273-B5FF-4DDF-9616-03EB7EEDE40B}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="L55" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1320,7 +1428,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>38</v>
@@ -1437,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>44</v>
@@ -1999,8 +2107,8 @@
       <c r="E41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>109</v>
+      <c r="F41" s="27" t="s">
+        <v>175</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>13</v>
@@ -2014,7 +2122,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -2022,8 +2130,8 @@
       <c r="E42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>111</v>
+      <c r="F42" s="27" t="s">
+        <v>176</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>22</v>
@@ -2037,16 +2145,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="6" t="s">
         <v>112</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>13</v>
@@ -2060,16 +2168,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>13</v>
@@ -2092,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>13</v>
@@ -2106,16 +2214,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>13</v>
@@ -2138,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>13</v>
@@ -2152,7 +2260,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
@@ -2161,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>22</v>
@@ -2175,7 +2283,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -2184,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>13</v>
@@ -2198,7 +2306,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -2207,7 +2315,7 @@
         <v>60</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>13</v>
@@ -2221,16 +2329,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>22</v>
@@ -2244,16 +2352,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>13</v>
@@ -2267,7 +2375,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -2276,7 +2384,7 @@
         <v>76</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>22</v>
@@ -2290,16 +2398,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>13</v>
@@ -2313,16 +2421,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>22</v>
@@ -2336,7 +2444,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -2345,7 +2453,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>13</v>
@@ -2359,7 +2467,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -2368,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>22</v>
@@ -2382,7 +2490,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
@@ -2391,7 +2499,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>22</v>
@@ -2405,7 +2513,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -2414,7 +2522,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>22</v>
@@ -2428,16 +2536,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>22</v>
@@ -2451,16 +2559,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -2474,7 +2582,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -2483,7 +2591,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -2506,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>13</v>
@@ -2520,7 +2628,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
         <v>21</v>
@@ -2529,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>22</v>
@@ -2543,7 +2651,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -2552,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>22</v>
@@ -2566,7 +2674,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -2575,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>13</v>
@@ -2589,7 +2697,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
@@ -2598,1583 +2706,10 @@
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" location="/trial/recipe-list" xr:uid="{3DC02332-B8F7-4A9D-AF66-AF508AF4F3D7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06968273-B5FF-4DDF-9616-03EB7EEDE40B}">
-  <dimension ref="A1:H67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1.2</v>
-      </c>
-      <c r="B8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1.2</v>
-      </c>
-      <c r="B10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>1.3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>1.3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>1.4</v>
-      </c>
-      <c r="B13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1.4</v>
-      </c>
-      <c r="B14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>1.3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>1.3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>1.4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>1.4</v>
-      </c>
-      <c r="B18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1.4</v>
-      </c>
-      <c r="B19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1.4</v>
-      </c>
-      <c r="B20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>1.4</v>
-      </c>
-      <c r="B21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>1.4</v>
-      </c>
-      <c r="B22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>1.4</v>
-      </c>
-      <c r="B23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>1.4</v>
-      </c>
-      <c r="B24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>1.4</v>
-      </c>
-      <c r="B25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>1.4</v>
-      </c>
-      <c r="B26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>1.4</v>
-      </c>
-      <c r="B27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>1.4</v>
-      </c>
-      <c r="B28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>1.4</v>
-      </c>
-      <c r="B29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>1.4</v>
-      </c>
-      <c r="B30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>1.4</v>
-      </c>
-      <c r="B31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>1.4</v>
-      </c>
-      <c r="B32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>1.4</v>
-      </c>
-      <c r="B33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>1.4</v>
-      </c>
-      <c r="B34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>1.4</v>
-      </c>
-      <c r="B35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>1.4</v>
-      </c>
-      <c r="B36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>1.4</v>
-      </c>
-      <c r="B37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>1.4</v>
-      </c>
-      <c r="B38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>1.4</v>
-      </c>
-      <c r="B39">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>1.4</v>
-      </c>
-      <c r="B40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>1.4</v>
-      </c>
-      <c r="B41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>1.4</v>
-      </c>
-      <c r="B42">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>1.4</v>
-      </c>
-      <c r="B43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>1.4</v>
-      </c>
-      <c r="B44">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>1.4</v>
-      </c>
-      <c r="B45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>1.4</v>
-      </c>
-      <c r="B46">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>1.4</v>
-      </c>
-      <c r="B47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>1.4</v>
-      </c>
-      <c r="B48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>1.4</v>
-      </c>
-      <c r="B49">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C49" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>1.4</v>
-      </c>
-      <c r="B50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>1.4</v>
-      </c>
-      <c r="B51">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>1.4</v>
-      </c>
-      <c r="B52">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>1.4</v>
-      </c>
-      <c r="B53">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C53" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>1.4</v>
-      </c>
-      <c r="B54">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>1.4</v>
-      </c>
-      <c r="B55">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C55" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>1.4</v>
-      </c>
-      <c r="B56">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>1.4</v>
-      </c>
-      <c r="B57">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>1.4</v>
-      </c>
-      <c r="B58">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>1.4</v>
-      </c>
-      <c r="B59">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C59" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>1.4</v>
-      </c>
-      <c r="B60">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>1.4</v>
-      </c>
-      <c r="B61">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>1.4</v>
-      </c>
-      <c r="B62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>1.4</v>
-      </c>
-      <c r="B63">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>1.4</v>
-      </c>
-      <c r="B64">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>1.4</v>
-      </c>
-      <c r="B65">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C65" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" t="s">
-        <v>160</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>1.4</v>
-      </c>
-      <c r="B66">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C66" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>1.4</v>
-      </c>
-      <c r="B67">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C67" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" t="s">
-        <v>162</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4183,4 +2718,3566 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC32AE66-08C9-4B02-8286-CAADD498358D}">
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.06640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="21.265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B19" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B20" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B21" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B23" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B24" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B25" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B26" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B28" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B29" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B30" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B31" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B32" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B33" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B34" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B35" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B37" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B38" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B39" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B40" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C41" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B42" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B43" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B44" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B45" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B46" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B47" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B48" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B49" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B50" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B51" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B52" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="22"/>
+    </row>
+    <row r="53" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B53" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B54" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="22"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B55" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="22"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B56" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="22"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B57" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B58" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="22"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B59" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="22"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B60" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B61" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="22"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B62" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="22"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B63" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="22"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B64" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="22"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B65" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="22"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B66" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="22"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B67" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="22"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B68" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="22"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B69" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="22"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B70" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="22"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B71" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="22"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B72" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="22"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B73" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="22"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B74" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="22"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" location="/trial/recipe-list" xr:uid="{D2C8A308-F891-4832-BC24-7B47118E4782}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A80637-2274-4D71-8E0D-292090B12EEF}">
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.06640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="21.265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B19" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B20" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B21" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B23" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B24" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B25" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B26" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B28" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B29" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B30" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B31" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B32" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B33" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B34" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B35" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B37" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B38" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B39" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B40" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C41" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B42" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B43" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B44" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B45" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B46" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B47" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B48" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B49" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B50" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B51" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B52" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="22"/>
+    </row>
+    <row r="53" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="B53" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B54" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="22"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B55" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="22"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B56" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="22"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B57" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B58" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="22"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B59" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="22"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B60" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B61" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="22"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B62" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="22"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B63" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="22"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B64" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="22"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B65" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="22"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B66" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="22"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B67" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="22"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B68" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="22"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B69" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="22"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B70" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="22"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B71" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="22"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B72" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="22"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B73" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="22"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B74" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="22"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" location="/trial/recipe-list" xr:uid="{4A42FEA9-8ADA-46B5-87BC-65E3445B27EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>